--- a/Projekt Kantonsrat/Namen_und_parteien.xlsx
+++ b/Projekt Kantonsrat/Namen_und_parteien.xlsx
@@ -27,18 +27,12 @@
     <t>P</t>
   </si>
   <si>
-    <t>Judith Wild-Haas</t>
-  </si>
-  <si>
     <t>Madeleine Landolt</t>
   </si>
   <si>
     <t>Peter Bossard</t>
   </si>
   <si>
-    <t>Susi Frei-Schläpfer</t>
-  </si>
-  <si>
     <t>Alois Henggeler</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>Hans-Rudolf Keiser</t>
   </si>
   <si>
-    <t>Marianne Krähenbühl-Burri</t>
-  </si>
-  <si>
     <t>Arthur Meier</t>
   </si>
   <si>
@@ -84,12 +75,6 @@
     <t>Beat Bussmann</t>
   </si>
   <si>
-    <t>Martha Hitz-Würms</t>
-  </si>
-  <si>
-    <t>Monika Hutter-Häfliger</t>
-  </si>
-  <si>
     <t>Maurus Nussbaumer</t>
   </si>
   <si>
@@ -117,9 +102,6 @@
     <t>Marlies Iten</t>
   </si>
   <si>
-    <t>Susanne Nelly  Jenny-Trütsch</t>
-  </si>
-  <si>
     <t>Urs Kern</t>
   </si>
   <si>
@@ -162,9 +144,6 @@
     <t>Ulrich Eicher</t>
   </si>
   <si>
-    <t>Luzia Gassner-Zimmermann</t>
-  </si>
-  <si>
     <t>Toni Kleimann</t>
   </si>
   <si>
@@ -186,9 +165,6 @@
     <t>Peter Hegglin</t>
   </si>
   <si>
-    <t>Trudy Fux-Meier</t>
-  </si>
-  <si>
     <t>Konrad Studerus</t>
   </si>
   <si>
@@ -207,21 +183,12 @@
     <t>Jakob Baggenstos</t>
   </si>
   <si>
-    <t>Ruth Knüsel-Iten</t>
-  </si>
-  <si>
     <t>Peter Wetter</t>
   </si>
   <si>
-    <t>Erna Staub-Petermann</t>
-  </si>
-  <si>
     <t>Jean-Paul Flachsmann</t>
   </si>
   <si>
-    <t>Brigitte Profos-Meier</t>
-  </si>
-  <si>
     <t>Ueli Iten</t>
   </si>
   <si>
@@ -234,12 +201,6 @@
     <t>Jeannette Ackermann</t>
   </si>
   <si>
-    <t>Claudia Bourquin-Fässler</t>
-  </si>
-  <si>
-    <t>Ursi Luginbühl-Wassmer</t>
-  </si>
-  <si>
     <t>Michael Jaggy</t>
   </si>
   <si>
@@ -252,18 +213,9 @@
     <t>Jacques-Armand Clerc</t>
   </si>
   <si>
-    <t>Käthi Langenegger-Lipp</t>
-  </si>
-  <si>
-    <t>Dorly Heimgartner-Häller</t>
-  </si>
-  <si>
     <t>Heinz Grüter</t>
   </si>
   <si>
-    <t>Ursula Baggenstos-Trottmann</t>
-  </si>
-  <si>
     <t>Hans Abicht</t>
   </si>
   <si>
@@ -276,9 +228,6 @@
     <t>Ueli Wirth</t>
   </si>
   <si>
-    <t>Manuela Weichelt-Picard</t>
-  </si>
-  <si>
     <t>Carla Dahinden</t>
   </si>
   <si>
@@ -303,9 +252,6 @@
     <t>Louis Suter</t>
   </si>
   <si>
-    <t>Andrea Hodel-Schmid</t>
-  </si>
-  <si>
     <t>Hans Peter Schlumpf</t>
   </si>
   <si>
@@ -336,18 +282,9 @@
     <t>Rolf Nussbaumer</t>
   </si>
   <si>
-    <t>Erica Albisser-Iten</t>
-  </si>
-  <si>
-    <t>Jeannette Bruckbach-Lüscher</t>
-  </si>
-  <si>
     <t>Daniel Grunder</t>
   </si>
   <si>
-    <t>Brigitte Iten-Besmer</t>
-  </si>
-  <si>
     <t>Josef Marty</t>
   </si>
   <si>
@@ -357,9 +294,6 @@
     <t>Diana Stadelmann</t>
   </si>
   <si>
-    <t>Sophie Stuber-Galler</t>
-  </si>
-  <si>
     <t>Antoinette Barmettler</t>
   </si>
   <si>
@@ -393,21 +327,12 @@
     <t>Käty  Hofer Buser</t>
   </si>
   <si>
-    <t>Vreni Sidler-Wilhelm</t>
-  </si>
-  <si>
     <t>Karl Betschart</t>
   </si>
   <si>
-    <t>Regula Töndury-Ruppli</t>
-  </si>
-  <si>
     <t>Rosemarie Fähndrich Burger</t>
   </si>
   <si>
-    <t>Beatrice Gaier-Beck</t>
-  </si>
-  <si>
     <t>Felix Häcki</t>
   </si>
   <si>
@@ -420,15 +345,9 @@
     <t>Werner Villiger</t>
   </si>
   <si>
-    <t>Anna Lustenberger-Seitz</t>
-  </si>
-  <si>
     <t>Gregor Kupper</t>
   </si>
   <si>
-    <t>Vreni Wicky-Bernold</t>
-  </si>
-  <si>
     <t>Eugen Meienberg</t>
   </si>
   <si>
@@ -447,15 +366,6 @@
     <t>Ulrich Straub</t>
   </si>
   <si>
-    <t>Franziska Suter-Kronenberg</t>
-  </si>
-  <si>
-    <t>Margrit Landtwing-Frei</t>
-  </si>
-  <si>
-    <t>Barbara Strub-Weideli</t>
-  </si>
-  <si>
     <t>Maja Dübendorfer</t>
   </si>
   <si>
@@ -492,15 +402,9 @@
     <t>Dolfi Müller</t>
   </si>
   <si>
-    <t>Lilian Hurschler-Baumgartner</t>
-  </si>
-  <si>
     <t>Franz Müller</t>
   </si>
   <si>
-    <t>Rosvita Corrodi-Voehri</t>
-  </si>
-  <si>
     <t>Christian Siegwart</t>
   </si>
   <si>
@@ -531,12 +435,6 @@
     <t>Silvia Künzli</t>
   </si>
   <si>
-    <t>Berty Zeiter-Ziegler</t>
-  </si>
-  <si>
-    <t>Heidi Robadey-Rogenmoser</t>
-  </si>
-  <si>
     <t>Martin B. Lehmann</t>
   </si>
   <si>
@@ -546,9 +444,6 @@
     <t>Martin Stuber</t>
   </si>
   <si>
-    <t>Arthur Walker-Merz</t>
-  </si>
-  <si>
     <t>Markus Jans</t>
   </si>
   <si>
@@ -633,9 +528,6 @@
     <t>Christina Huber Keiser</t>
   </si>
   <si>
-    <t>Irène Castell-Bachmann</t>
-  </si>
-  <si>
     <t>Thomas Rickenbacher</t>
   </si>
   <si>
@@ -663,9 +555,6 @@
     <t>Walter Birrer</t>
   </si>
   <si>
-    <t>Vroni Straub-Müller</t>
-  </si>
-  <si>
     <t>Rupan Sivaganesan</t>
   </si>
   <si>
@@ -678,9 +567,6 @@
     <t>Andreas Hürlimann</t>
   </si>
   <si>
-    <t>Hanni Schriber-Neiger</t>
-  </si>
-  <si>
     <t>Josef Murer</t>
   </si>
   <si>
@@ -825,9 +711,6 @@
     <t>Olivia Bühler</t>
   </si>
   <si>
-    <t>Jolanda Spiess-Hegglin</t>
-  </si>
-  <si>
     <t>Andreas Meier</t>
   </si>
   <si>
@@ -900,9 +783,6 @@
     <t>Anastas Odermatt</t>
   </si>
   <si>
-    <t>Mariann Hess-Witschi</t>
-  </si>
-  <si>
     <t>Ralph Ryser</t>
   </si>
   <si>
@@ -927,15 +807,9 @@
     <t>Marcel Peter</t>
   </si>
   <si>
-    <t>Magda Feldmann-Müller</t>
-  </si>
-  <si>
     <t>Fabian Freimann</t>
   </si>
   <si>
-    <t>Sepp Grob-Bieri</t>
-  </si>
-  <si>
     <t>Marc Reichmuth</t>
   </si>
   <si>
@@ -1069,6 +943,132 @@
   </si>
   <si>
     <t>Alternativen Fraktion</t>
+  </si>
+  <si>
+    <t>Mariann Hess</t>
+  </si>
+  <si>
+    <t>Magda Feldmann</t>
+  </si>
+  <si>
+    <t>Sepp Grob</t>
+  </si>
+  <si>
+    <t>Jolanda Spiess</t>
+  </si>
+  <si>
+    <t>Hanni Schriber</t>
+  </si>
+  <si>
+    <t>Vroni Straub</t>
+  </si>
+  <si>
+    <t>Irène Castell</t>
+  </si>
+  <si>
+    <t>Arthur Walker</t>
+  </si>
+  <si>
+    <t>Heidi Robadey</t>
+  </si>
+  <si>
+    <t>Berty Zeiter</t>
+  </si>
+  <si>
+    <t>Lilian Hurschler</t>
+  </si>
+  <si>
+    <t>Barbara Strub</t>
+  </si>
+  <si>
+    <t>Margrit Landtwing</t>
+  </si>
+  <si>
+    <t>Franziska Suter</t>
+  </si>
+  <si>
+    <t>Vreni Wicky</t>
+  </si>
+  <si>
+    <t>Rosvita Corrodi</t>
+  </si>
+  <si>
+    <t>Anna Lustenberger</t>
+  </si>
+  <si>
+    <t>Beatrice Gaier</t>
+  </si>
+  <si>
+    <t>Regula Töndury</t>
+  </si>
+  <si>
+    <t>Vreni Sidler</t>
+  </si>
+  <si>
+    <t>Sophie Stuber</t>
+  </si>
+  <si>
+    <t>Brigitte Iten</t>
+  </si>
+  <si>
+    <t>Jeannette Bruckbach</t>
+  </si>
+  <si>
+    <t>Erica Albisser</t>
+  </si>
+  <si>
+    <t>Andrea Hodel</t>
+  </si>
+  <si>
+    <t>Manuela Weichelt</t>
+  </si>
+  <si>
+    <t>Ursula Baggenstos</t>
+  </si>
+  <si>
+    <t>Dorly Heimgartner</t>
+  </si>
+  <si>
+    <t>Käthi Langenegger</t>
+  </si>
+  <si>
+    <t>Ursi Luginbühl</t>
+  </si>
+  <si>
+    <t>Claudia Bourquin</t>
+  </si>
+  <si>
+    <t>Brigitte Profos</t>
+  </si>
+  <si>
+    <t>Erna Staub</t>
+  </si>
+  <si>
+    <t>Ruth Knüsel</t>
+  </si>
+  <si>
+    <t>Trudy Fux</t>
+  </si>
+  <si>
+    <t>Luzia Gassner</t>
+  </si>
+  <si>
+    <t>Susanne Nelly  Jenny</t>
+  </si>
+  <si>
+    <t>Monika Hutter</t>
+  </si>
+  <si>
+    <t>Martha Hitz</t>
+  </si>
+  <si>
+    <t>Marianne Krähenbühl</t>
+  </si>
+  <si>
+    <t>Judith Wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susi Frei </t>
   </si>
 </sst>
 </file>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C349" sqref="C349"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1471,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1482,10 +1482,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1493,10 +1493,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1504,10 +1504,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1515,10 +1515,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1526,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1537,10 +1537,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1548,10 +1548,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1559,10 +1559,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1570,10 +1570,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1581,10 +1581,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1592,10 +1592,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1603,10 +1603,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1614,10 +1614,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1625,10 +1625,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -1636,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1647,10 +1647,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1658,10 +1658,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1669,10 +1669,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>346</v>
       </c>
       <c r="C21" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1680,10 +1680,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="C22" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -1691,10 +1691,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -1702,10 +1702,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1713,10 +1713,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -1724,10 +1724,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1735,10 +1735,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -1746,10 +1746,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1757,10 +1757,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1768,10 +1768,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -1779,10 +1779,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -1790,10 +1790,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -1801,10 +1801,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -1812,10 +1812,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -1823,10 +1823,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -1834,10 +1834,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1845,10 +1845,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1856,10 +1856,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1867,10 +1867,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1878,10 +1878,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1889,10 +1889,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1900,10 +1900,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1911,10 +1911,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1922,10 +1922,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1933,10 +1933,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1944,10 +1944,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1955,10 +1955,10 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>343</v>
       </c>
       <c r="C47" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1966,10 +1966,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1977,10 +1977,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1988,10 +1988,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1999,10 +1999,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -2010,10 +2010,10 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -2021,10 +2021,10 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -2032,10 +2032,10 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -2043,10 +2043,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>342</v>
       </c>
       <c r="C55" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -2054,10 +2054,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -2065,10 +2065,10 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -2076,10 +2076,10 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -2087,10 +2087,10 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -2098,10 +2098,10 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -2109,10 +2109,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -2120,10 +2120,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
       <c r="C62" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -2131,10 +2131,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -2142,10 +2142,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -2153,10 +2153,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -2164,10 +2164,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>339</v>
       </c>
       <c r="C66" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -2175,10 +2175,10 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -2186,10 +2186,10 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -2197,10 +2197,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -2208,10 +2208,10 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -2219,10 +2219,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -2230,10 +2230,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="C72" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -2241,10 +2241,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C73" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -2252,10 +2252,10 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -2263,10 +2263,10 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -2274,10 +2274,10 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -2285,10 +2285,10 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -2296,10 +2296,10 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="C78" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -2307,10 +2307,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C79" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -2318,10 +2318,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>334</v>
       </c>
       <c r="C80" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -2329,10 +2329,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -2340,10 +2340,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -2351,10 +2351,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -2362,10 +2362,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -2373,10 +2373,10 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="C85" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -2384,10 +2384,10 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -2395,10 +2395,10 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -2406,10 +2406,10 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C88" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -2417,10 +2417,10 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C89" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -2428,10 +2428,10 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C90" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -2439,10 +2439,10 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -2450,10 +2450,10 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -2461,10 +2461,10 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C93" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -2472,10 +2472,10 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -2483,10 +2483,10 @@
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -2494,10 +2494,10 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -2505,10 +2505,10 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C97" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -2516,10 +2516,10 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -2527,10 +2527,10 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -2538,10 +2538,10 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -2549,10 +2549,10 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -2560,10 +2560,10 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -2571,10 +2571,10 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C103" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -2582,10 +2582,10 @@
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -2593,10 +2593,10 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -2604,10 +2604,10 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -2615,10 +2615,10 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>330</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -2626,10 +2626,10 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -2637,10 +2637,10 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="C109" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -2648,10 +2648,10 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C110" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -2659,10 +2659,10 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C111" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -2670,10 +2670,10 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -2681,10 +2681,10 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
       <c r="C113" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -2692,10 +2692,10 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -2703,10 +2703,10 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -2714,10 +2714,10 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -2725,10 +2725,10 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -2736,10 +2736,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -2747,10 +2747,10 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C119" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -2758,10 +2758,10 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C120" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -2769,10 +2769,10 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C121" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -2780,10 +2780,10 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C122" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2791,10 +2791,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="C123" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -2802,10 +2802,10 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -2813,10 +2813,10 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="C125" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -2824,10 +2824,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C126" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -2835,10 +2835,10 @@
         <v>140</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="C127" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -2846,10 +2846,10 @@
         <v>141</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C128" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -2857,10 +2857,10 @@
         <v>142</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -2868,10 +2868,10 @@
         <v>143</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C130" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -2879,10 +2879,10 @@
         <v>144</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -2890,10 +2890,10 @@
         <v>145</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C132" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -2901,10 +2901,10 @@
         <v>146</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C133" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
@@ -2912,10 +2912,10 @@
         <v>147</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -2923,10 +2923,10 @@
         <v>148</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C135" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
@@ -2934,10 +2934,10 @@
         <v>149</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="C136" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
@@ -2945,10 +2945,10 @@
         <v>150</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
@@ -2956,10 +2956,10 @@
         <v>151</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="C138" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
@@ -2967,10 +2967,10 @@
         <v>152</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C139" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
@@ -2978,10 +2978,10 @@
         <v>153</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C140" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
@@ -2989,10 +2989,10 @@
         <v>154</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C141" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
@@ -3000,10 +3000,10 @@
         <v>155</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="C142" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
@@ -3011,10 +3011,10 @@
         <v>156</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
       <c r="C143" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
@@ -3022,10 +3022,10 @@
         <v>157</v>
       </c>
       <c r="B144" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C144" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
@@ -3033,10 +3033,10 @@
         <v>158</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>320</v>
       </c>
       <c r="C145" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
@@ -3044,10 +3044,10 @@
         <v>159</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c r="C146" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
@@ -3055,10 +3055,10 @@
         <v>160</v>
       </c>
       <c r="B147" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C147" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
@@ -3066,10 +3066,10 @@
         <v>161</v>
       </c>
       <c r="B148" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C148" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
@@ -3077,10 +3077,10 @@
         <v>162</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C149" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
@@ -3088,10 +3088,10 @@
         <v>163</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C150" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
@@ -3099,10 +3099,10 @@
         <v>164</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C151" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
@@ -3110,10 +3110,10 @@
         <v>165</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C152" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
@@ -3121,10 +3121,10 @@
         <v>166</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C153" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
@@ -3132,10 +3132,10 @@
         <v>167</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C154" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
@@ -3143,10 +3143,10 @@
         <v>168</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C155" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
@@ -3154,10 +3154,10 @@
         <v>169</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C156" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
@@ -3165,10 +3165,10 @@
         <v>170</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C157" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -3176,10 +3176,10 @@
         <v>171</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C158" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -3187,10 +3187,10 @@
         <v>172</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="C159" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -3198,10 +3198,10 @@
         <v>173</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C160" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -3209,10 +3209,10 @@
         <v>174</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="C161" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -3220,10 +3220,10 @@
         <v>175</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="C162" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -3231,10 +3231,10 @@
         <v>176</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="C163" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -3242,10 +3242,10 @@
         <v>177</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C164" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -3253,10 +3253,10 @@
         <v>178</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="C165" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -3264,10 +3264,10 @@
         <v>179</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="C166" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -3275,10 +3275,10 @@
         <v>180</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C167" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -3286,10 +3286,10 @@
         <v>181</v>
       </c>
       <c r="B168" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C168" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -3297,10 +3297,10 @@
         <v>187</v>
       </c>
       <c r="B169" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C169" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -3308,10 +3308,10 @@
         <v>188</v>
       </c>
       <c r="B170" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C170" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -3319,10 +3319,10 @@
         <v>189</v>
       </c>
       <c r="B171" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C171" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -3330,10 +3330,10 @@
         <v>190</v>
       </c>
       <c r="B172" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C172" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -3341,10 +3341,10 @@
         <v>191</v>
       </c>
       <c r="B173" t="s">
-        <v>170</v>
+        <v>317</v>
       </c>
       <c r="C173" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -3352,10 +3352,10 @@
         <v>192</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="C174" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -3363,10 +3363,10 @@
         <v>193</v>
       </c>
       <c r="B175" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C175" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -3374,10 +3374,10 @@
         <v>194</v>
       </c>
       <c r="B176" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C176" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -3385,10 +3385,10 @@
         <v>195</v>
       </c>
       <c r="B177" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C177" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -3396,10 +3396,10 @@
         <v>196</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="C178" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -3407,10 +3407,10 @@
         <v>197</v>
       </c>
       <c r="B179" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C179" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -3418,10 +3418,10 @@
         <v>198</v>
       </c>
       <c r="B180" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C180" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -3429,10 +3429,10 @@
         <v>199</v>
       </c>
       <c r="B181" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C181" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -3440,10 +3440,10 @@
         <v>200</v>
       </c>
       <c r="B182" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C182" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -3451,10 +3451,10 @@
         <v>201</v>
       </c>
       <c r="B183" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C183" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -3462,10 +3462,10 @@
         <v>202</v>
       </c>
       <c r="B184" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C184" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -3473,10 +3473,10 @@
         <v>203</v>
       </c>
       <c r="B185" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C185" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -3484,10 +3484,10 @@
         <v>204</v>
       </c>
       <c r="B186" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="C186" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -3495,10 +3495,10 @@
         <v>205</v>
       </c>
       <c r="B187" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C187" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -3506,10 +3506,10 @@
         <v>206</v>
       </c>
       <c r="B188" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C188" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -3517,10 +3517,10 @@
         <v>207</v>
       </c>
       <c r="B189" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="C189" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -3528,10 +3528,10 @@
         <v>208</v>
       </c>
       <c r="B190" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C190" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -3539,10 +3539,10 @@
         <v>209</v>
       </c>
       <c r="B191" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="C191" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -3550,10 +3550,10 @@
         <v>210</v>
       </c>
       <c r="B192" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C192" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -3561,10 +3561,10 @@
         <v>211</v>
       </c>
       <c r="B193" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C193" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -3572,10 +3572,10 @@
         <v>212</v>
       </c>
       <c r="B194" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="C194" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -3583,10 +3583,10 @@
         <v>213</v>
       </c>
       <c r="B195" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C195" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -3594,10 +3594,10 @@
         <v>214</v>
       </c>
       <c r="B196" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C196" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -3605,10 +3605,10 @@
         <v>215</v>
       </c>
       <c r="B197" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="C197" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -3616,10 +3616,10 @@
         <v>216</v>
       </c>
       <c r="B198" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C198" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -3627,10 +3627,10 @@
         <v>217</v>
       </c>
       <c r="B199" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C199" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -3638,10 +3638,10 @@
         <v>218</v>
       </c>
       <c r="B200" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C200" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -3649,10 +3649,10 @@
         <v>219</v>
       </c>
       <c r="B201" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C201" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -3660,10 +3660,10 @@
         <v>220</v>
       </c>
       <c r="B202" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="C202" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -3671,10 +3671,10 @@
         <v>221</v>
       </c>
       <c r="B203" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C203" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -3682,10 +3682,10 @@
         <v>222</v>
       </c>
       <c r="B204" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C204" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
@@ -3693,10 +3693,10 @@
         <v>223</v>
       </c>
       <c r="B205" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C205" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -3704,10 +3704,10 @@
         <v>224</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="C206" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -3715,10 +3715,10 @@
         <v>225</v>
       </c>
       <c r="B207" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="C207" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
@@ -3726,10 +3726,10 @@
         <v>226</v>
       </c>
       <c r="B208" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="C208" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
@@ -3737,10 +3737,10 @@
         <v>227</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="C209" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
@@ -3748,10 +3748,10 @@
         <v>228</v>
       </c>
       <c r="B210" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C210" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
@@ -3759,10 +3759,10 @@
         <v>234</v>
       </c>
       <c r="B211" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C211" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
@@ -3770,10 +3770,10 @@
         <v>235</v>
       </c>
       <c r="B212" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C212" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
@@ -3781,10 +3781,10 @@
         <v>236</v>
       </c>
       <c r="B213" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="C213" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
@@ -3792,10 +3792,10 @@
         <v>237</v>
       </c>
       <c r="B214" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="C214" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
@@ -3803,10 +3803,10 @@
         <v>238</v>
       </c>
       <c r="B215" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="C215" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
@@ -3814,10 +3814,10 @@
         <v>239</v>
       </c>
       <c r="B216" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="C216" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
@@ -3825,10 +3825,10 @@
         <v>240</v>
       </c>
       <c r="B217" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="C217" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -3836,10 +3836,10 @@
         <v>241</v>
       </c>
       <c r="B218" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="C218" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
@@ -3847,10 +3847,10 @@
         <v>242</v>
       </c>
       <c r="B219" t="s">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="C219" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
@@ -3858,10 +3858,10 @@
         <v>243</v>
       </c>
       <c r="B220" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="C220" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
@@ -3869,10 +3869,10 @@
         <v>244</v>
       </c>
       <c r="B221" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C221" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
@@ -3880,10 +3880,10 @@
         <v>245</v>
       </c>
       <c r="B222" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="C222" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
@@ -3891,10 +3891,10 @@
         <v>246</v>
       </c>
       <c r="B223" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C223" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
@@ -3902,10 +3902,10 @@
         <v>247</v>
       </c>
       <c r="B224" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="C224" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
@@ -3913,10 +3913,10 @@
         <v>248</v>
       </c>
       <c r="B225" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="C225" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
@@ -3924,10 +3924,10 @@
         <v>249</v>
       </c>
       <c r="B226" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C226" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
@@ -3935,10 +3935,10 @@
         <v>250</v>
       </c>
       <c r="B227" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C227" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
@@ -3946,10 +3946,10 @@
         <v>251</v>
       </c>
       <c r="B228" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C228" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
@@ -3957,10 +3957,10 @@
         <v>252</v>
       </c>
       <c r="B229" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C229" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
@@ -3968,10 +3968,10 @@
         <v>253</v>
       </c>
       <c r="B230" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C230" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
@@ -3979,10 +3979,10 @@
         <v>254</v>
       </c>
       <c r="B231" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C231" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
@@ -3990,10 +3990,10 @@
         <v>255</v>
       </c>
       <c r="B232" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="C232" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
@@ -4001,10 +4001,10 @@
         <v>256</v>
       </c>
       <c r="B233" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C233" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
@@ -4012,10 +4012,10 @@
         <v>257</v>
       </c>
       <c r="B234" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="C234" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
@@ -4023,10 +4023,10 @@
         <v>258</v>
       </c>
       <c r="B235" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="C235" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
@@ -4034,10 +4034,10 @@
         <v>259</v>
       </c>
       <c r="B236" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C236" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
@@ -4045,10 +4045,10 @@
         <v>260</v>
       </c>
       <c r="B237" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C237" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
@@ -4056,10 +4056,10 @@
         <v>261</v>
       </c>
       <c r="B238" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="C238" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
@@ -4067,10 +4067,10 @@
         <v>262</v>
       </c>
       <c r="B239" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="C239" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
@@ -4078,10 +4078,10 @@
         <v>263</v>
       </c>
       <c r="B240" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="C240" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
@@ -4089,10 +4089,10 @@
         <v>264</v>
       </c>
       <c r="B241" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="C241" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
@@ -4100,10 +4100,10 @@
         <v>265</v>
       </c>
       <c r="B242" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C242" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
@@ -4111,10 +4111,10 @@
         <v>266</v>
       </c>
       <c r="B243" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="C243" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
@@ -4122,10 +4122,10 @@
         <v>267</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="C244" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
@@ -4133,10 +4133,10 @@
         <v>268</v>
       </c>
       <c r="B245" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C245" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
@@ -4144,10 +4144,10 @@
         <v>269</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C246" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
@@ -4155,10 +4155,10 @@
         <v>270</v>
       </c>
       <c r="B247" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="C247" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
@@ -4166,10 +4166,10 @@
         <v>271</v>
       </c>
       <c r="B248" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C248" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
@@ -4177,10 +4177,10 @@
         <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="C249" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
@@ -4188,10 +4188,10 @@
         <v>273</v>
       </c>
       <c r="B250" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="C250" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
@@ -4199,10 +4199,10 @@
         <v>274</v>
       </c>
       <c r="B251" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="C251" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
@@ -4210,10 +4210,10 @@
         <v>275</v>
       </c>
       <c r="B252" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="C252" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
@@ -4221,10 +4221,10 @@
         <v>281</v>
       </c>
       <c r="B253" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="C253" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
@@ -4232,10 +4232,10 @@
         <v>282</v>
       </c>
       <c r="B254" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C254" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
@@ -4243,10 +4243,10 @@
         <v>283</v>
       </c>
       <c r="B255" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C255" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
@@ -4254,10 +4254,10 @@
         <v>284</v>
       </c>
       <c r="B256" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C256" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
@@ -4265,10 +4265,10 @@
         <v>285</v>
       </c>
       <c r="B257" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="C257" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
@@ -4276,10 +4276,10 @@
         <v>286</v>
       </c>
       <c r="B258" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="C258" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
@@ -4287,10 +4287,10 @@
         <v>287</v>
       </c>
       <c r="B259" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="C259" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
@@ -4298,10 +4298,10 @@
         <v>288</v>
       </c>
       <c r="B260" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C260" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
@@ -4309,10 +4309,10 @@
         <v>289</v>
       </c>
       <c r="B261" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C261" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
@@ -4320,10 +4320,10 @@
         <v>290</v>
       </c>
       <c r="B262" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="C262" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
@@ -4331,10 +4331,10 @@
         <v>291</v>
       </c>
       <c r="B263" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="C263" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
@@ -4342,10 +4342,10 @@
         <v>292</v>
       </c>
       <c r="B264" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="C264" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -4353,10 +4353,10 @@
         <v>293</v>
       </c>
       <c r="B265" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C265" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -4364,10 +4364,10 @@
         <v>294</v>
       </c>
       <c r="B266" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="C266" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
@@ -4375,10 +4375,10 @@
         <v>295</v>
       </c>
       <c r="B267" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="C267" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
@@ -4386,10 +4386,10 @@
         <v>296</v>
       </c>
       <c r="B268" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C268" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
@@ -4397,10 +4397,10 @@
         <v>297</v>
       </c>
       <c r="B269" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C269" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
@@ -4408,10 +4408,10 @@
         <v>298</v>
       </c>
       <c r="B270" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="C270" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
@@ -4419,10 +4419,10 @@
         <v>299</v>
       </c>
       <c r="B271" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="C271" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
@@ -4430,10 +4430,10 @@
         <v>300</v>
       </c>
       <c r="B272" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C272" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
@@ -4441,10 +4441,10 @@
         <v>301</v>
       </c>
       <c r="B273" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="C273" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
@@ -4452,10 +4452,10 @@
         <v>302</v>
       </c>
       <c r="B274" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="C274" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
@@ -4463,10 +4463,10 @@
         <v>304</v>
       </c>
       <c r="B275" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C275" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
@@ -4474,10 +4474,10 @@
         <v>305</v>
       </c>
       <c r="B276" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="C276" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
@@ -4485,10 +4485,10 @@
         <v>306</v>
       </c>
       <c r="B277" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="C277" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
@@ -4496,10 +4496,10 @@
         <v>307</v>
       </c>
       <c r="B278" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C278" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
@@ -4507,10 +4507,10 @@
         <v>309</v>
       </c>
       <c r="B279" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C279" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
@@ -4518,10 +4518,10 @@
         <v>310</v>
       </c>
       <c r="B280" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="C280" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
@@ -4529,10 +4529,10 @@
         <v>311</v>
       </c>
       <c r="B281" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C281" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
@@ -4540,10 +4540,10 @@
         <v>312</v>
       </c>
       <c r="B282" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C282" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
@@ -4551,10 +4551,10 @@
         <v>313</v>
       </c>
       <c r="B283" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C283" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
@@ -4562,10 +4562,10 @@
         <v>314</v>
       </c>
       <c r="B284" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C284" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
@@ -4573,10 +4573,10 @@
         <v>315</v>
       </c>
       <c r="B285" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C285" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
@@ -4584,10 +4584,10 @@
         <v>316</v>
       </c>
       <c r="B286" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C286" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
@@ -4595,10 +4595,10 @@
         <v>317</v>
       </c>
       <c r="B287" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C287" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
@@ -4606,10 +4606,10 @@
         <v>318</v>
       </c>
       <c r="B288" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C288" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
@@ -4617,10 +4617,10 @@
         <v>319</v>
       </c>
       <c r="B289" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="C289" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
@@ -4628,10 +4628,10 @@
         <v>320</v>
       </c>
       <c r="B290" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C290" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
@@ -4639,10 +4639,10 @@
         <v>321</v>
       </c>
       <c r="B291" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C291" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
@@ -4650,10 +4650,10 @@
         <v>322</v>
       </c>
       <c r="B292" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C292" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
@@ -4661,10 +4661,10 @@
         <v>323</v>
       </c>
       <c r="B293" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C293" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
@@ -4672,10 +4672,10 @@
         <v>329</v>
       </c>
       <c r="B294" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C294" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
@@ -4683,10 +4683,10 @@
         <v>330</v>
       </c>
       <c r="B295" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C295" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
@@ -4694,10 +4694,10 @@
         <v>331</v>
       </c>
       <c r="B296" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="C296" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
@@ -4705,10 +4705,10 @@
         <v>332</v>
       </c>
       <c r="B297" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C297" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
@@ -4716,10 +4716,10 @@
         <v>333</v>
       </c>
       <c r="B298" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C298" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
@@ -4727,10 +4727,10 @@
         <v>334</v>
       </c>
       <c r="B299" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C299" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
@@ -4738,10 +4738,10 @@
         <v>335</v>
       </c>
       <c r="B300" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C300" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
@@ -4749,10 +4749,10 @@
         <v>336</v>
       </c>
       <c r="B301" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C301" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
@@ -4760,10 +4760,10 @@
         <v>337</v>
       </c>
       <c r="B302" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="C302" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
@@ -4771,10 +4771,10 @@
         <v>338</v>
       </c>
       <c r="B303" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="C303" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
@@ -4782,10 +4782,10 @@
         <v>339</v>
       </c>
       <c r="B304" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="C304" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
@@ -4793,10 +4793,10 @@
         <v>340</v>
       </c>
       <c r="B305" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="C305" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
@@ -4804,10 +4804,10 @@
         <v>341</v>
       </c>
       <c r="B306" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="C306" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
@@ -4815,10 +4815,10 @@
         <v>342</v>
       </c>
       <c r="B307" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="C307" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
@@ -4826,10 +4826,10 @@
         <v>343</v>
       </c>
       <c r="B308" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
@@ -4837,10 +4837,10 @@
         <v>344</v>
       </c>
       <c r="B309" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="C309" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -4848,10 +4848,10 @@
         <v>345</v>
       </c>
       <c r="B310" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C310" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
@@ -4859,10 +4859,10 @@
         <v>346</v>
       </c>
       <c r="B311" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="C311" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
@@ -4870,10 +4870,10 @@
         <v>347</v>
       </c>
       <c r="B312" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="C312" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
@@ -4881,10 +4881,10 @@
         <v>348</v>
       </c>
       <c r="B313" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="C313" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
@@ -4892,10 +4892,10 @@
         <v>349</v>
       </c>
       <c r="B314" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="C314" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
@@ -4903,10 +4903,10 @@
         <v>350</v>
       </c>
       <c r="B315" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C315" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
@@ -4914,10 +4914,10 @@
         <v>351</v>
       </c>
       <c r="B316" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="C316" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
@@ -4925,10 +4925,10 @@
         <v>353</v>
       </c>
       <c r="B317" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="C317" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
@@ -4936,10 +4936,10 @@
         <v>354</v>
       </c>
       <c r="B318" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C318" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
@@ -4947,10 +4947,10 @@
         <v>355</v>
       </c>
       <c r="B319" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="C319" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
@@ -4958,10 +4958,10 @@
         <v>356</v>
       </c>
       <c r="B320" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C320" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
@@ -4969,10 +4969,10 @@
         <v>357</v>
       </c>
       <c r="B321" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="C321" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
@@ -4980,10 +4980,10 @@
         <v>358</v>
       </c>
       <c r="B322" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="C322" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
@@ -4991,10 +4991,10 @@
         <v>359</v>
       </c>
       <c r="B323" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="C323" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
@@ -5002,10 +5002,10 @@
         <v>360</v>
       </c>
       <c r="B324" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="C324" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
@@ -5013,10 +5013,10 @@
         <v>361</v>
       </c>
       <c r="B325" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="C325" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
@@ -5024,10 +5024,10 @@
         <v>362</v>
       </c>
       <c r="B326" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="C326" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
@@ -5035,10 +5035,10 @@
         <v>363</v>
       </c>
       <c r="B327" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="C327" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
@@ -5046,10 +5046,10 @@
         <v>364</v>
       </c>
       <c r="B328" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="C328" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
@@ -5057,10 +5057,10 @@
         <v>365</v>
       </c>
       <c r="B329" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="C329" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
@@ -5068,10 +5068,10 @@
         <v>366</v>
       </c>
       <c r="B330" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="C330" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
@@ -5079,10 +5079,10 @@
         <v>367</v>
       </c>
       <c r="B331" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="C331" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
@@ -5090,10 +5090,10 @@
         <v>368</v>
       </c>
       <c r="B332" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="C332" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
@@ -5101,10 +5101,10 @@
         <v>369</v>
       </c>
       <c r="B333" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="C333" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
@@ -5112,10 +5112,10 @@
         <v>370</v>
       </c>
       <c r="B334" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="C334" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
@@ -5123,10 +5123,10 @@
         <v>376</v>
       </c>
       <c r="B335" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="C335" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
@@ -5134,10 +5134,10 @@
         <v>377</v>
       </c>
       <c r="B336" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="C336" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
@@ -5145,10 +5145,10 @@
         <v>378</v>
       </c>
       <c r="B337" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="C337" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
@@ -5156,10 +5156,10 @@
         <v>379</v>
       </c>
       <c r="B338" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="C338" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
@@ -5167,10 +5167,10 @@
         <v>380</v>
       </c>
       <c r="B339" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="C339" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
@@ -5178,10 +5178,10 @@
         <v>381</v>
       </c>
       <c r="B340" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="C340" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
@@ -5189,50 +5189,50 @@
         <v>382</v>
       </c>
       <c r="B341" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="C341" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B342" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="C342" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="C343" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B344" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="C344" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="C345" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="C346" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
